--- a/Fontes/participacao.xlsx
+++ b/Fontes/participacao.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diogo\Documents\GitHub\Arraial\Fontes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B059D91-C90E-4E2D-B551-33C150CD0CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013CC0AD-C17A-4304-84DF-50E972BEAE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="participacao" sheetId="3" r:id="rId2"/>
+    <sheet name="Folha1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DadosExternos_1" localSheetId="1" hidden="1">participacao!$A$1:$B$101</definedName>
+    <definedName name="DadosExternos_1" localSheetId="1" hidden="1">Folha1!$A$1:$B$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -466,7 +466,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3BE29A-051C-4865-8D6F-BA933F99AF92}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
